--- a/Armor and Items Chart.xlsx
+++ b/Armor and Items Chart.xlsx
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +769,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
@@ -779,6 +779,9 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
+      <c r="L6">
+        <v>650</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" t="s">
         <v>52</v>
@@ -792,7 +795,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3">
         <v>-4</v>
@@ -802,6 +805,9 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
+      <c r="L7">
+        <v>600</v>
+      </c>
       <c r="N7" t="s">
         <v>49</v>
       </c>
@@ -814,7 +820,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3">
         <v>4</v>
@@ -824,6 +830,9 @@
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
+      <c r="L8">
+        <v>500</v>
+      </c>
       <c r="N8" t="s">
         <v>48</v>
       </c>

--- a/Armor and Items Chart.xlsx
+++ b/Armor and Items Chart.xlsx
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
